--- a/BOM-v1.xlsx
+++ b/BOM-v1.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\projects\power-energy-meter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D22DB04-DC6F-452D-B699-E6471040CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B686E3-93B0-4B9D-B678-F6805079A0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{E45E0919-FB0A-46C0-A1B2-2A0054AA9B99}"/>
+    <workbookView xWindow="3165" yWindow="0" windowWidth="19890" windowHeight="12825" xr2:uid="{E45E0919-FB0A-46C0-A1B2-2A0054AA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>POWER ENERGY METER BOM v1</t>
   </si>
@@ -60,9 +63,6 @@
     <t xml:space="preserve">Communication </t>
   </si>
   <si>
-    <t>GSM/SPRS Module</t>
-  </si>
-  <si>
     <t>Power Supply</t>
   </si>
   <si>
@@ -112,13 +112,73 @@
   </si>
   <si>
     <t>https://www.pixelelectric.com/sensors/biometric-rotation-current/current-voltage/non-invasive-ac-current-sensor-100a-max/</t>
+  </si>
+  <si>
+    <t>240V Extension</t>
+  </si>
+  <si>
+    <t>GSM/GPRS Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Breadboard</t>
+  </si>
+  <si>
+    <t>Data storage</t>
+  </si>
+  <si>
+    <t>Sd card module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD card 2GB </t>
+  </si>
+  <si>
+    <t>OLED SCREEN</t>
+  </si>
+  <si>
+    <t>Jumper Wires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +196,7 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,6 +204,28 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,15 +233,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -167,22 +255,449 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,6 +708,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56B6CEEB-2170-4A09-8D6D-79EF50650C36}" name="Table3" displayName="Table3" ref="A3:O33" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="A3:O33" xr:uid="{56B6CEEB-2170-4A09-8D6D-79EF50650C36}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{1B77F8AB-D323-4251-AB4C-2387EB718056}" name="Item" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3BF0F21D-D096-4284-B868-D0A47E6BD351}" name="Quantity" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8C856DF7-989C-427A-9DA5-870F0FE7E553}" name="Price " dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{41E057B7-03E7-45B6-B022-3EC22181F22E}" name="Store " dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B699C28D-3BBA-43EB-A8AB-1808F2298D0B}" name="Column1" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{9D627848-98EB-44A3-A1B2-6B5D7AA7C42D}" name="Column2" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8AFFECFC-CF19-4B14-88A1-F96F5BA30397}" name="Column3" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{0238B7CE-A047-41F3-8BAA-C8DE91885904}" name="Column4" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{9B248BB7-DF8F-4BF1-832F-79DACE2CCEAD}" name="Column5" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{4D1FB380-0D94-459F-A677-E81EC8542B13}" name="Column6" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{C928E336-3314-4BD8-9D73-6B962C8E413F}" name="Column7" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{E7625256-8118-4300-8821-E89F6801EB81}" name="Column8" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{6239977F-4C56-4569-A328-26B845CA4140}" name="Column9" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{16BAF30C-2ED8-4C60-ACA4-1BF5828CF5DA}" name="Column10" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{F88264C2-DD77-4FB9-9964-CF68BA988059}" name="Column11" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,229 +1031,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD925D6-3240-45FA-8287-F70AA0604733}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="C15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>600</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="C27" s="2">
+        <v>500</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="14">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+      <c r="C30" s="14">
+        <v>150</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
+      <c r="C31" s="6">
+        <v>400</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>1500</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1400</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>200</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
+      <c r="C32" s="6">
+        <v>600</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>260</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUM(C5:C33)</f>
+        <v>6955</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>